--- a/Planeamento/Update_Julho_Gantt_PlanoTese_ControloPlataformaSismica.xlsx
+++ b/Planeamento/Update_Julho_Gantt_PlanoTese_ControloPlataformaSismica.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afons\OneDrive - Universidade de Lisboa\Controlo de Plataforma Sismica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afons\OneDrive - Universidade de Lisboa\Controlo de Plataforma Sismica\Planeamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E1B50D-D259-41AE-9854-84EEF6CA2773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2CE534-D2C3-48F8-936A-A67A59305F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,6 +413,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -424,12 +430,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,13 +454,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1851085</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>149611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38333</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>117097</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -498,13 +498,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>8986</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>160654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>92226</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>144621</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -543,13 +543,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>251604</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>44929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>476236</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>126805</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -645,7 +645,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>12859</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>161744</xdr:rowOff>
+      <xdr:rowOff>135468</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -944,13 +944,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomRight" activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,43 +964,43 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="10" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1056,96 +1056,91 @@
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>14</v>
-      </c>
+    <row r="5" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="15"/>
       <c r="C5" s="6"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Planeamento/Update_Julho_Gantt_PlanoTese_ControloPlataformaSismica.xlsx
+++ b/Planeamento/Update_Julho_Gantt_PlanoTese_ControloPlataformaSismica.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afons\OneDrive - Universidade de Lisboa\Controlo de Plataforma Sismica\Planeamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2CE534-D2C3-48F8-936A-A67A59305F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB554B0-260B-41C6-A21F-515A06C9191C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -204,6 +204,27 @@
       </rPr>
       <t>: passar saida do controlador (isv) por filtro, tal que Guniaxial = Filtro * Gmini</t>
     </r>
+  </si>
+  <si>
+    <t>identificação com anel aberto</t>
+  </si>
+  <si>
+    <t>implementar  PIDF</t>
+  </si>
+  <si>
+    <t>simulação metodo LNEC e comparação PIDF</t>
+  </si>
+  <si>
+    <t>fazer adaptação do driver</t>
+  </si>
+  <si>
+    <t>Comparação de resutladoas experimentais</t>
+  </si>
+  <si>
+    <t>identificação com massa na mesa</t>
+  </si>
+  <si>
+    <t>obter resutlados com massa para pidf e adaptação</t>
   </si>
 </sst>
 </file>
@@ -388,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -427,9 +448,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,16 +559,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>251604</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>44929</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>489729</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>476236</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>126805</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>103519</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>23272</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -573,8 +591,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7296510" y="5130920"/>
-          <a:ext cx="6335009" cy="4610743"/>
+          <a:off x="12385626" y="3357972"/>
+          <a:ext cx="6333056" cy="4554485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -944,13 +962,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S20" sqref="S20"/>
+      <selection pane="bottomRight" activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1078,6 @@
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="15"/>
       <c r="C5" s="6"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
@@ -1142,6 +1159,82 @@
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
     </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>18</v>
+      </c>
+      <c r="C27" s="3">
+        <v>19</v>
+      </c>
+      <c r="D27" s="3">
+        <v>20</v>
+      </c>
+      <c r="E27" s="3">
+        <v>21</v>
+      </c>
+      <c r="F27" s="3">
+        <v>22</v>
+      </c>
+      <c r="G27" s="3">
+        <v>23</v>
+      </c>
+      <c r="H27" s="3">
+        <v>24</v>
+      </c>
+      <c r="I27" s="3">
+        <v>25</v>
+      </c>
+      <c r="J27" s="3">
+        <v>26</v>
+      </c>
+      <c r="K27" s="3">
+        <v>27</v>
+      </c>
+      <c r="L27" s="3">
+        <v>28</v>
+      </c>
+      <c r="M27" s="3">
+        <v>29</v>
+      </c>
+      <c r="N27" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="G2:J2"/>
